--- a/data/Analisis_bigO.xlsx
+++ b/data/Analisis_bigO.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F761406-39F3-4C41-A3A6-03CF5B8A5A31}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B3671-5343-4DA2-AAC2-89B1F1A2480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos obtenidos en las pruebas" sheetId="1" r:id="rId1"/>
@@ -43,26 +48,26 @@
     <t>Creación de un arbol AVL de tamaño n</t>
   </si>
   <si>
-    <t>Busqueda por elemento arbol AVL</t>
-  </si>
-  <si>
-    <t>Creacion de tabla hash de tamaño n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminación por posicion lista doble </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busqueda por elemento lista doble </t>
-  </si>
-  <si>
     <t>&lt;1</t>
+  </si>
+  <si>
+    <t>Búsqueda por elemento árbol AVL</t>
+  </si>
+  <si>
+    <t>Creación de tabla Hash de tamaño n</t>
+  </si>
+  <si>
+    <t>Búsqueda por llave en tabla Hash</t>
+  </si>
+  <si>
+    <t>Búsqueda por elemento en lista doble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +119,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,10 +204,10 @@
     <tableColumn id="2" xr3:uid="{932C43B0-13BC-43AE-A757-DFB85B0D109A}" name="Creación de una cola de tamaño n" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{38CB7874-9CDF-40C3-B2BB-17418238FB73}" name="Creación de una pila de tamaño n" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{659CE9B4-3909-4910-AA4E-DB951AA41FDA}" name="Creación de un arbol AVL de tamaño n" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{FF39126D-1D4D-4739-81D4-BA8F93E55F6B}" name="Busqueda por elemento arbol AVL" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E5BC0952-2CF5-4E13-95D4-9615DC0402D4}" name="Creacion de tabla hash de tamaño n" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7AB85BDA-FDDD-43E1-8980-771F0B1A4599}" name="Eliminación por posicion lista doble " dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{CA64A288-C5A2-4B3F-BBC4-98C05432F15F}" name="Busqueda por elemento lista doble " dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{FF39126D-1D4D-4739-81D4-BA8F93E55F6B}" name="Búsqueda por elemento árbol AVL" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E5BC0952-2CF5-4E13-95D4-9615DC0402D4}" name="Creación de tabla Hash de tamaño n" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7AB85BDA-FDDD-43E1-8980-771F0B1A4599}" name="Búsqueda por llave en tabla Hash" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CA64A288-C5A2-4B3F-BBC4-98C05432F15F}" name="Búsqueda por elemento en lista doble" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,156 +512,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
-    <col min="2" max="8" width="34.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="8" width="34.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
+      <c r="C4" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>183.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1869.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
         <v>21.6</v>
       </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>183.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="C5" s="2">
-        <v>71.2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1869.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>31.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>10000000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>660.4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>672.4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>30993</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>35.1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>475.5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
         <v>75.3</v>
       </c>
     </row>
